--- a/Documentação/Planilhas/Layouts/Contas_Pagar_LN.xlsx
+++ b/Documentação/Planilhas/Layouts/Contas_Pagar_LN.xlsx
@@ -4,23 +4,50 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="28" activeTab="28"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_sige_titulo_movimento" sheetId="113" r:id="rId2"/>
-    <sheet name="stg_sige_titulo_pagamento" sheetId="114" r:id="rId3"/>
-    <sheet name="stg_sige_titulo" sheetId="115" r:id="rId4"/>
-    <sheet name="stg_sige_titulo_documento" sheetId="116" r:id="rId5"/>
-    <sheet name="stg_sige_terceiro_banco" sheetId="117" r:id="rId6"/>
-    <sheet name="stg_sige_condicao_pagamento" sheetId="118" r:id="rId7"/>
+    <sheet name="aux_ods_cap_reembolso" sheetId="142" r:id="rId1"/>
+    <sheet name="aux_ods_enc_car_cap" sheetId="121" r:id="rId2"/>
+    <sheet name="aux_ods_sige_titulo" sheetId="131" r:id="rId3"/>
+    <sheet name="aux_ods_sige_titulo_movimento" sheetId="134" r:id="rId4"/>
+    <sheet name="aux_ods_sige_titulo_pagamento" sheetId="129" r:id="rId5"/>
+    <sheet name="aux_ods_terceiro_banco" sheetId="137" r:id="rId6"/>
+    <sheet name="dump_parceiro_negocio" sheetId="135" r:id="rId7"/>
+    <sheet name="ods_cap_cliente_reembolso" sheetId="140" r:id="rId8"/>
+    <sheet name="ods_cap_reembolso" sheetId="141" r:id="rId9"/>
+    <sheet name="ods_condicao_pagamento" sheetId="127" r:id="rId10"/>
+    <sheet name="ods_enc_car_cap" sheetId="123" r:id="rId11"/>
+    <sheet name="ods_fornecedor_contato" sheetId="138" r:id="rId12"/>
+    <sheet name="ods_parceiro_negocio" sheetId="133" r:id="rId13"/>
+    <sheet name="ods_sige_remessa" sheetId="139" r:id="rId14"/>
+    <sheet name="ods_sige_titulo" sheetId="130" r:id="rId15"/>
+    <sheet name="ods_sige_titulo_documento" sheetId="125" r:id="rId16"/>
+    <sheet name="ods_sige_titulo_modulo" sheetId="124" r:id="rId17"/>
+    <sheet name="ods_sige_titulo_movimento" sheetId="132" r:id="rId18"/>
+    <sheet name="ods_sige_titulo_pagamento" sheetId="128" r:id="rId19"/>
+    <sheet name="ods_sige_titulo_transacao" sheetId="126" r:id="rId20"/>
+    <sheet name="ods_terceiro_banco" sheetId="136" r:id="rId21"/>
+    <sheet name="ods_titulo_x_recebimento" sheetId="144" r:id="rId22"/>
+    <sheet name="stg_enc_reversao" sheetId="122" r:id="rId23"/>
+    <sheet name="stg_parceiro_negocio" sheetId="120" r:id="rId24"/>
+    <sheet name="stg_sige_condicao_pagamento" sheetId="118" r:id="rId25"/>
+    <sheet name="stg_sige_fornecedor_contato" sheetId="119" r:id="rId26"/>
+    <sheet name="stg_sige_terceiro_banco" sheetId="117" r:id="rId27"/>
+    <sheet name="stg_sige_titulo" sheetId="115" r:id="rId28"/>
+    <sheet name="stg_sige_titulo_abatimento" sheetId="145" r:id="rId29"/>
+    <sheet name="stg_sige_titulo_complemento" sheetId="143" r:id="rId30"/>
+    <sheet name="stg_sige_titulo_documento" sheetId="116" r:id="rId31"/>
+    <sheet name="stg_sige_titulo_movimento" sheetId="113" r:id="rId32"/>
+    <sheet name="stg_sige_titulo_pagamento" sheetId="114" r:id="rId33"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId34"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="537">
   <si>
     <t>Campo</t>
   </si>
@@ -284,9 +311,6 @@
   </si>
   <si>
     <t>Identifica a Data da Liquidação do título no formato AAAA-MM-DD HH:MM:SS</t>
-  </si>
-  <si>
-    <t>Identifica o Usuario</t>
   </si>
   <si>
     <t>Identifica o Banco do Fornecedor através do seu código. Ex: 341, etc</t>
@@ -621,6 +645,1020 @@
   </si>
   <si>
     <t>ln.ods_condicao_pagamento_ref</t>
+  </si>
+  <si>
+    <t>[fin].[stg_sige_fornecedor_contato]</t>
+  </si>
+  <si>
+    <t>TCON_ID_TERCEIRO</t>
+  </si>
+  <si>
+    <t>TCON_ID_CONTATO</t>
+  </si>
+  <si>
+    <t>TCON_NOME</t>
+  </si>
+  <si>
+    <t>TCON_TELEFONE</t>
+  </si>
+  <si>
+    <t>TCON_EMAIL</t>
+  </si>
+  <si>
+    <t>Identifica a Área de Contato através da sua descrição. Ex: VENDAS, FINANCEIRO, DIRETORIA, FATURAMENTO, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Contato através do seu nome. Ex: FLAVIA LEITE, MARINA LEITE, Silvia Agnelli, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Telefone do Contato. Ex: (11) 3061-1662, 36831840, etc</t>
+  </si>
+  <si>
+    <t>Identifica o e-mail do contato. Ex: ricardopremak@gmail.com ; Controladoria02@ontimelogistica.com.br; etc</t>
+  </si>
+  <si>
+    <t>dim.ods_parceiro_endereco</t>
+  </si>
+  <si>
+    <t>[erp].[stg_parceiro_negocio]</t>
+  </si>
+  <si>
+    <t>stg_parceiro_negocio</t>
+  </si>
+  <si>
+    <t>stg_sige_fornecedor_contato</t>
+  </si>
+  <si>
+    <t>ID_TERCEIRO</t>
+  </si>
+  <si>
+    <t>ID_TIPCLI</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>DATAHORA</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro de Negócios através do seu CPF/CNPJ completo sem qualquer separador. Ex: 17726759000159, 9329143000540, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu CPF/CNPJ completo sem qualquer separador. Ex: 17726759000159, 9329143000540, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro através do seu nome completo. Ex: Samsung Eletronica da Amazonia Ltda, Luana Coral Godoy, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Parceiro através do seu código. Ex: 1 (Jurídica), 2 (Física)</t>
+  </si>
+  <si>
+    <t>Identifica a Situação do Parceiro de Negócios através do seu código. Ex: A, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data e hora da última atualização no formato AAAA-MM-DD HH:MM:SS</t>
+  </si>
+  <si>
+    <t>CD_CIA_CAR</t>
+  </si>
+  <si>
+    <t>NR_MOVIMENTO_CAR</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_DOCUMENTO_CAR</t>
+  </si>
+  <si>
+    <t>DS_ID_TITULO_CAR</t>
+  </si>
+  <si>
+    <t>NR_ID_TITULO_CAR</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_TITULO_CAR</t>
+  </si>
+  <si>
+    <t>CD_CIA_CAP</t>
+  </si>
+  <si>
+    <t>NR_MOVIMENTO_CAP</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_DOCUMENTO_CAP</t>
+  </si>
+  <si>
+    <t>DS_ID_TITULO_CAP</t>
+  </si>
+  <si>
+    <t>NR_ID_TITULO_CAP</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_TITULO_CAP</t>
+  </si>
+  <si>
+    <t>[ln].[aux_ods_enc_car_cap]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</t>
+  </si>
+  <si>
+    <t>aux_ods_enc_car_cap</t>
+  </si>
+  <si>
+    <t>Identifica a Companhia através do seu código. Ex: 201, etc</t>
+  </si>
+  <si>
+    <t>Identifica o movimento do Contas a Receber através do seu número. Ex: 1, 11, 18, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação do Documento no Contas a Receber através do seu código. Ex: ENC, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Título no Contas a Receber através da sua descrição. Ex: RE415, RB313, RB317, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Título no Contas a Receber através do seu número. Ex: 1246617, 1246407, 1246411, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação do Título no Contas a Receber através do seu código. Ex: RE1, FAT, RB3, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Companhia do Contas a Receber através do seu código. Ex: 201, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Companhia do Contas a Pagar através do seu código. Ex: 201, etc</t>
+  </si>
+  <si>
+    <t>Identifica o movimento do Contas a Pagar através do seu número. Ex: 1, 11, 18, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação do Documento no Contas a Pagar através do seu código. Ex: ENC, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Título no Contas a Pagar através da sua descrição. Ex: PFA65, PFA73, PFA67, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Título no Contas a Pagar através do seu número. Ex: 1236002, 1236009, 1236004, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação do Título no Contas a Pagar através do seu código. Ex: AFA, PBG, PFA, etc</t>
+  </si>
+  <si>
+    <t>ln.ods_car_titulo_mvmto</t>
+  </si>
+  <si>
+    <t>ln.ods_titulo_car_ref</t>
+  </si>
+  <si>
+    <t>ln.ods_cap_conciliacao_cap_car</t>
+  </si>
+  <si>
+    <t>[ln].[stg_enc_reversao]</t>
+  </si>
+  <si>
+    <t>CD_CHAVE_PRIMARIA</t>
+  </si>
+  <si>
+    <t>NR_TRANSACAO_BAIXA</t>
+  </si>
+  <si>
+    <t>Identifica a Chave Primária composta pela Transação do Título e Número do Título. Ex: AFA4, FAT1416, FAT198, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação de Baixa através do seu número. Ex: 26, 81, etc</t>
+  </si>
+  <si>
+    <t>stg_enc_reversao</t>
+  </si>
+  <si>
+    <t>[ln].[ods_enc_car_cap]</t>
+  </si>
+  <si>
+    <t>yn_reversao</t>
+  </si>
+  <si>
+    <t>Identifica a reversão através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>ln.aux_ods_enc_car_cap</t>
+  </si>
+  <si>
+    <t>ods_enc_car_cap</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_sige_titulo_modulo]</t>
+  </si>
+  <si>
+    <t>id_modulo</t>
+  </si>
+  <si>
+    <t>ds_modulo</t>
+  </si>
+  <si>
+    <t>ods_sige_titulo_modulo</t>
+  </si>
+  <si>
+    <t>Identifica o módulo através do seu código. Ex: CB, CO, CP, CR, CT, ES, FI, SU, etc</t>
+  </si>
+  <si>
+    <t>Identifica o módulo através da sua descrição. Ex: Caixa e Bancos, Vendas, Contas a Pagar, Contas a Receber, Contabilidade, Estoques, Fiscal, Compras, etc</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_modulo</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_sige_titulo_documento]</t>
+  </si>
+  <si>
+    <t>id_documento</t>
+  </si>
+  <si>
+    <t>ds_documento</t>
+  </si>
+  <si>
+    <t>Identifica o módulo através do seu código. Ex: CAP, etc</t>
+  </si>
+  <si>
+    <t>Identifica o documento através do seu código. Ex: PNA, PRD, PGA, etc</t>
+  </si>
+  <si>
+    <t>Identifica o documento através da sua descrição. Ex: Devde Merc  Reversa, Reembolsos de Despesas e Benef, Faturas a Pagar  ATACADO, etc</t>
+  </si>
+  <si>
+    <t>ods_sige_titulo_documento</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_sige_titulo_transacao]</t>
+  </si>
+  <si>
+    <t>id_transacao</t>
+  </si>
+  <si>
+    <t>ds_transacao</t>
+  </si>
+  <si>
+    <t>Identifica o módulo através do seu código. Ex: CP, etc</t>
+  </si>
+  <si>
+    <t>Identifica a transação através do seu código. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica a transação através da sua descrição. Ex: Inclusao, Cancelamento, Pagamento, etc</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_transacao</t>
+  </si>
+  <si>
+    <t>ods_sige_titulo_transacao</t>
+  </si>
+  <si>
+    <t>[fin].[ods_condicao_pagamento]</t>
+  </si>
+  <si>
+    <t>nr_id_cia</t>
+  </si>
+  <si>
+    <t>nr_id_conpag</t>
+  </si>
+  <si>
+    <t>ds_conpag</t>
+  </si>
+  <si>
+    <t>nr_pz_medio</t>
+  </si>
+  <si>
+    <t>Identifica a Condição de Pagamento através da sua descrição. Ex: 13 DD; 11/ 18/ 46/ 74DDL; 14 / 20 DD, etc</t>
+  </si>
+  <si>
+    <t>Quantidade média de dias da condição de pagamento.</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_condicao_pagamento</t>
+  </si>
+  <si>
+    <t>ods_condicao_pagamento</t>
+  </si>
+  <si>
+    <t>[fin].[ods_sige_titulo_pagamento]</t>
+  </si>
+  <si>
+    <t>ods_sige_titulo_pagamento</t>
+  </si>
+  <si>
+    <t>nr_id_titulo</t>
+  </si>
+  <si>
+    <t>nr_id_banco</t>
+  </si>
+  <si>
+    <t>nr_id_agencia</t>
+  </si>
+  <si>
+    <t>nr_id_conta_banco</t>
+  </si>
+  <si>
+    <t>ds_id_modalidade</t>
+  </si>
+  <si>
+    <t>nr_num_documento</t>
+  </si>
+  <si>
+    <t>nr_dt_pagamento</t>
+  </si>
+  <si>
+    <t>nr_vl_pagamento</t>
+  </si>
+  <si>
+    <t>nr_id_transacao</t>
+  </si>
+  <si>
+    <t>nr_id_movimento</t>
+  </si>
+  <si>
+    <t>nr_dt_estorno</t>
+  </si>
+  <si>
+    <t>ds_sit_pagelet</t>
+  </si>
+  <si>
+    <t>ds_situacao</t>
+  </si>
+  <si>
+    <t>dt_datahora</t>
+  </si>
+  <si>
+    <t>nr_dt_liquidacao</t>
+  </si>
+  <si>
+    <t>ds_usuario_update</t>
+  </si>
+  <si>
+    <t>nr_id_remessa</t>
+  </si>
+  <si>
+    <t>nr_id_banco_dest</t>
+  </si>
+  <si>
+    <t>nr_id_agencia_dest</t>
+  </si>
+  <si>
+    <t>nr_id_agencia_dv_dest</t>
+  </si>
+  <si>
+    <t>nr_id_conta_dest</t>
+  </si>
+  <si>
+    <t>nr_id_conta_dv_dest</t>
+  </si>
+  <si>
+    <t>Identifica o título através do seu número. Ex: 1237042, 1235684, 1235685, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Agência Bancária através do seu código. Ex: 910, 911, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Conta Bancária através do seu código. Ex: 942, 10077, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Modalidade de Pagamento através do seu código. Ex: 7, 15, 16, etc</t>
+  </si>
+  <si>
+    <t>Identifica o documento através do seu número. Ex: 82, 89, 129, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data de pagamento no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Valor do Pagamento</t>
+  </si>
+  <si>
+    <t>Identifica a Transação através do seu código. Ex: 300, 306, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Movimento através do seu código. Ex: 238963, 238966, 238968, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data de estorno no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a situação do pagamento eletrônico através do seu código. Ex: C, M, P, R, etc</t>
+  </si>
+  <si>
+    <t>Identifica a situação do título através do seu código. Ex: 0, 6, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da liquidação no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o Usuario da atualiação do título através do seu login. Ex: ANDERSON_NUNES, DAISY_MATTOS, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Remessa através do seu número.</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_titulo_pagamento</t>
+  </si>
+  <si>
+    <t>[fin].[aux_ods_sige_titulo_pagamento]</t>
+  </si>
+  <si>
+    <t>aux_ods_sige_titulo_pagamento</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_sige_titulo]</t>
+  </si>
+  <si>
+    <t>id_titulo</t>
+  </si>
+  <si>
+    <t>id_cia</t>
+  </si>
+  <si>
+    <t>id_filial</t>
+  </si>
+  <si>
+    <t>id_fornecedor</t>
+  </si>
+  <si>
+    <t>id_nr</t>
+  </si>
+  <si>
+    <t>nr_nota_forn</t>
+  </si>
+  <si>
+    <t>serie_nota_forn</t>
+  </si>
+  <si>
+    <t>seq_nota_forn</t>
+  </si>
+  <si>
+    <t>dt_emissao</t>
+  </si>
+  <si>
+    <t>dt_vencimento</t>
+  </si>
+  <si>
+    <t>dt_vencimento_orig</t>
+  </si>
+  <si>
+    <t>dt_liquidacao</t>
+  </si>
+  <si>
+    <t>vl_titulo</t>
+  </si>
+  <si>
+    <t>vl_titulo_orig</t>
+  </si>
+  <si>
+    <t>ds_flagbloqueio</t>
+  </si>
+  <si>
+    <t>dt_situacao</t>
+  </si>
+  <si>
+    <t>id_contrato_vpc</t>
+  </si>
+  <si>
+    <t>id_contrato_vpc_seq</t>
+  </si>
+  <si>
+    <t>ds_tp_nota</t>
+  </si>
+  <si>
+    <t>vl_saldo_titulo</t>
+  </si>
+  <si>
+    <t>nr_pedido_loja</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio</t>
+  </si>
+  <si>
+    <t>nr_id_banco_destino</t>
+  </si>
+  <si>
+    <t>nr_id_conta_destino</t>
+  </si>
+  <si>
+    <t>ds_dv_conta_destino</t>
+  </si>
+  <si>
+    <t>nr_id_agencia_destino</t>
+  </si>
+  <si>
+    <t>ds_dv_agencia_destino</t>
+  </si>
+  <si>
+    <t>nr_id_pedido_venda</t>
+  </si>
+  <si>
+    <t>nr_id_meio_pagamento_pedido</t>
+  </si>
+  <si>
+    <t>ds_canal_venda</t>
+  </si>
+  <si>
+    <t>nr_status_titulo</t>
+  </si>
+  <si>
+    <t>in_ativo</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Módulo através do seu código. Ex: CAP</t>
+  </si>
+  <si>
+    <t>Identifica o Título através do seu número. Ex: 1237043, 1237044, 1237045, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Documento através do seu código. Ex: PMC, PFS, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu CPF/CNPJ completo sem qualquer separador. Ex: 1166372000155, 1451416000270, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Emissão do Título no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Vencimento do Título no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Vencimento Original do Título no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Liquidação do Título no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Situação do Título no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Última atualização do título no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a Nota de Recebimento através do seu código. Ex: 16127119, 16127620, etc</t>
+  </si>
+  <si>
+    <t>ln.ods_cap_titulo_referencia</t>
+  </si>
+  <si>
+    <t>ln.ods_nota_recebimento_ref</t>
+  </si>
+  <si>
+    <t>ods_sige_titulo</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_ods_sige_titulo]</t>
+  </si>
+  <si>
+    <t>aux_ods_sige_titulo</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_sige_titulo_movimento]</t>
+  </si>
+  <si>
+    <t>id_movimento</t>
+  </si>
+  <si>
+    <t>dt_transacao</t>
+  </si>
+  <si>
+    <t>vl_transacao</t>
+  </si>
+  <si>
+    <t>id_modulo_ref</t>
+  </si>
+  <si>
+    <t>id_titulo_ref</t>
+  </si>
+  <si>
+    <t>nr_id_sinal</t>
+  </si>
+  <si>
+    <t>in_invalido</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Transação no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Situação no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o sinal para o valor do título (1 ou -1)</t>
+  </si>
+  <si>
+    <t>Identifica a Sequência do Movimento através do seu número. Ex: 1,2, etc</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>ods_sige_titulo_movimento</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_ods_sige_titulo_movimento]</t>
+  </si>
+  <si>
+    <t>aux_ods_sige_titulo_movimento</t>
+  </si>
+  <si>
+    <t>nr_id_parceiro_negocio</t>
+  </si>
+  <si>
+    <t>nr_id_tipo_cliente</t>
+  </si>
+  <si>
+    <t>ds_nome</t>
+  </si>
+  <si>
+    <t>ds_id_situacao</t>
+  </si>
+  <si>
+    <t>ds_pessoa</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Parceiro através da sua descrição. Ex: PJ, PF</t>
+  </si>
+  <si>
+    <t>erp.stg_parceiro_negocio</t>
+  </si>
+  <si>
+    <t>[erp].[dump_parceiro_negocio]</t>
+  </si>
+  <si>
+    <t>id_terceiro</t>
+  </si>
+  <si>
+    <t>id_tipcli</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>datahora</t>
+  </si>
+  <si>
+    <t>ods_parceiro_negocio</t>
+  </si>
+  <si>
+    <t>dump_parceiro_negocio</t>
+  </si>
+  <si>
+    <t>[fin].[ods_terceiro_banco]</t>
+  </si>
+  <si>
+    <t>nr_id_terceiro</t>
+  </si>
+  <si>
+    <t>nr_id_agencia_dv</t>
+  </si>
+  <si>
+    <t>nr_id_conta</t>
+  </si>
+  <si>
+    <t>nr_id_conta_dv</t>
+  </si>
+  <si>
+    <t>dt_carga</t>
+  </si>
+  <si>
+    <t>Identifica o dígito verificador da Agência Bancária através do seu código. Ex: 0, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica o dígito verificador da Conta Bancária através do seu código. Ex: 3, 7, etc</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_terceiro_banco</t>
+  </si>
+  <si>
+    <t>[fin].[aux_ods_terceiro_banco]</t>
+  </si>
+  <si>
+    <t>ods_terceiro_banco</t>
+  </si>
+  <si>
+    <t>aux_ods_terceiro_banco</t>
+  </si>
+  <si>
+    <t>[fin].[ods_fornecedor_contato]</t>
+  </si>
+  <si>
+    <t>ds_id_contato</t>
+  </si>
+  <si>
+    <t>ds_telefone</t>
+  </si>
+  <si>
+    <t>ds_email</t>
+  </si>
+  <si>
+    <t>NR_ID</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Carga no formato AAAA-MM-DD HH:MM:SS</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_fornecedor_contato</t>
+  </si>
+  <si>
+    <t>ods_fornecedor_contato</t>
+  </si>
+  <si>
+    <t>está desabilitado</t>
+  </si>
+  <si>
+    <t>[fin].[ods_sige_remessa]</t>
+  </si>
+  <si>
+    <t>dt_remessa</t>
+  </si>
+  <si>
+    <t>dt_hora_atualizacao</t>
+  </si>
+  <si>
+    <t>ds_usuario</t>
+  </si>
+  <si>
+    <t>Identifica a Remessa através do seu número. Ex: 1, 4, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da remessa no formato AAAA-MM-DD HH:MM:SS</t>
+  </si>
+  <si>
+    <t>Identifica a situação da remessa através do seu código. Ex: C, etc</t>
+  </si>
+  <si>
+    <t>Identifica o usuário através do seu nome. Ex: PATRICIA_OLIVEIRA, DANIELE_VICENTE, etc</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_remessa</t>
+  </si>
+  <si>
+    <t>ods_sige_remessa</t>
+  </si>
+  <si>
+    <t>[fin].[ods_cap_cliente_reembolso]</t>
+  </si>
+  <si>
+    <t>nr_cpfcnpj</t>
+  </si>
+  <si>
+    <t>Identifica o Cliente do Reembolso através do seu CPF/CNPJ sem qualquer separador. Ex: 31905059850, 81088078087, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Cliente do Reembolso através do seu nome. Ex: CAMILA  BISPO ONOFRE, LUCENIRA SANTOS OLIANO, etc</t>
+  </si>
+  <si>
+    <t>ln.ods_agrupamento_transacao</t>
+  </si>
+  <si>
+    <t>ods_cap_cliente_reembolso</t>
+  </si>
+  <si>
+    <t>[fin].[ods_cap_reembolso]</t>
+  </si>
+  <si>
+    <t>ods_cap_reembolso</t>
+  </si>
+  <si>
+    <t>MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>ds_modalidade</t>
+  </si>
+  <si>
+    <t>ds_erro_agencia</t>
+  </si>
+  <si>
+    <t>ds_erro_cc</t>
+  </si>
+  <si>
+    <t>ds_flag_prepagto</t>
+  </si>
+  <si>
+    <t>ds_flag_bloqueio</t>
+  </si>
+  <si>
+    <t>fl_baixa_zz</t>
+  </si>
+  <si>
+    <t>ds_nome_atendente</t>
+  </si>
+  <si>
+    <t>Identifica o título através do seu número. Ex: 858050, 858053, 858056, etc</t>
+  </si>
+  <si>
+    <t>Identifica o documento através do seu código. Ex: PRB, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu CPF/CNPJ sem qualquer separador. Ex: 31905059850, 81088078087, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da emissão no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a data da Liquidação no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a data do Vencimento no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a situação do título através do seu código. Ex: L, A, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido do Cliente na loja através do seu número. Ex: 42186998, 42186999, 42186822, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 5, 1, 7, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Banco Destino através do seu código. Ex: 341, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Agência Bancária destino através do seu código. Ex: 910, 911, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Conta Bancária destino através do seu código. Ex: 942, 10077, etc</t>
+  </si>
+  <si>
+    <t>Identifica o dígito verificador da Conta Bancária destino através do seu código. Ex: 3, 7, etc</t>
+  </si>
+  <si>
+    <t>Identifica o dígito verificador da Agência Bancária destino através do seu código. Ex: 0, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica a modalidade de pagamento através do seu código. Ex: DOC, CC, TED, etc</t>
+  </si>
+  <si>
+    <t>Identifica se houve algum erro na agência (S/N)</t>
+  </si>
+  <si>
+    <t>Identifica se houve algum erro na Conta Corrente (S/N)</t>
+  </si>
+  <si>
+    <t>Identifica a Flag de Pre Pagamento (S/N)</t>
+  </si>
+  <si>
+    <t>Identifica a Flag de Bloqueio (S/N)</t>
+  </si>
+  <si>
+    <t>Identifica a Flag de Baixa (S/N)</t>
+  </si>
+  <si>
+    <t>Identifica o Atendente através do seu nome. Ex: Thiago Riboldi, Valdineia Santos, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Meio de Pagamento do Pedido através do seu código. Ex: 2, 5, 9, etc</t>
+  </si>
+  <si>
+    <t>Identifica o canal de venda através do seu código. Ex: Site, TVEN, etc</t>
+  </si>
+  <si>
+    <t>ln.ods_cap_titulo_reembolso</t>
+  </si>
+  <si>
+    <t>fin.ods_sige_titulo_pagamento</t>
+  </si>
+  <si>
+    <t>[fin].[aux_ods_cap_reembolso]</t>
+  </si>
+  <si>
+    <t>aux_ods_cap_reembolso</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_sige_titulo_complemento]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_complemento</t>
+  </si>
+  <si>
+    <t>VL_SALDO_TITULO</t>
+  </si>
+  <si>
+    <t>DS_SITUACAO</t>
+  </si>
+  <si>
+    <t>DATA_VENCIMENTO</t>
+  </si>
+  <si>
+    <t>CAP_ID_DOC</t>
+  </si>
+  <si>
+    <t>DS_FLAGPREPAGTO</t>
+  </si>
+  <si>
+    <t>TITD_ID_MODULO</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Nota de Recebimento através do seu número. Ex: 1294116, 1495963, etc</t>
+  </si>
+  <si>
+    <t>Identifica o título através do seu número. Ex: 248722, 275603, etc</t>
+  </si>
+  <si>
+    <t>Identifica a situação do título através do seu código. Ex: A, L, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Vencimento no formato AAAA-MM-DD HH:MM:SS</t>
+  </si>
+  <si>
+    <t>Identifica o Documento através do seu código. Ex: FS, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Nota através do seu código. Ex: RSER, etc</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo</t>
+  </si>
+  <si>
+    <t>stg_nfr_cab</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo_pgto</t>
+  </si>
+  <si>
+    <t>[ln].[ods_titulo_x_recebimento]</t>
+  </si>
+  <si>
+    <t>ods_titulo_x_recebimento</t>
+  </si>
+  <si>
+    <t>cd_cia</t>
+  </si>
+  <si>
+    <t>ds_id_titulo</t>
+  </si>
+  <si>
+    <t>nr_id_nota_recebimento</t>
+  </si>
+  <si>
+    <t>ds_id_nota_recebimento</t>
+  </si>
+  <si>
+    <t>Identifica o Título através da sua descrição. Ex: AFA100, AFA101, AFA102, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Título através do seu número. Ex: 1235692, 1235693, 1235694, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Nota de Recebimento através do seu número. Ex: 16124972, 16124975, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Referência Fiscal através do seu código. Ex: R20000245, R20000251, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln.ods_cap_titulo_referencia </t>
+  </si>
+  <si>
+    <t>[dbo].[stg_sige_titulo_abatimento]</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_abatimento</t>
+  </si>
+  <si>
+    <t>id_tipo_abatimento</t>
+  </si>
+  <si>
+    <t>id_titulo_abatimento</t>
+  </si>
+  <si>
+    <t>id_documento_abatimento</t>
+  </si>
+  <si>
+    <t>id_modulo_abatimento</t>
+  </si>
+  <si>
+    <t>Identifica o Título através do seu número. Ex: 1235910, 1235913, 1235941, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação do título através do seu código. Ex: 3, 5, 7, etc</t>
+  </si>
+  <si>
+    <t>Valor da Transação realizado</t>
+  </si>
+  <si>
+    <t>Identifica a data da Transação no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Abatimento realizado através do seu código. Ex: 1, 2, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Título do Abatimento através do seu número. Ex: 3177, 7894, 9611, etc</t>
+  </si>
+  <si>
+    <t>Identifica o documento do abatimento através do seu código. Ex: ACP, NCC, etc</t>
+  </si>
+  <si>
+    <t>Identifica o módulo do abatimento através do seu código. Ex: CAP</t>
   </si>
 </sst>
 </file>
@@ -658,7 +1696,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,8 +1709,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -923,6 +1967,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -931,7 +2014,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -961,9 +2044,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,11 +2055,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1000,6 +2088,456 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1089,7 +2627,637 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1225,6 +3393,141 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1554,120 +3857,2231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D13"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="19" t="str">
-        <f>stg_sige_titulo_movimento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="21" t="str">
-        <f>stg_sige_titulo_pagamento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="21" t="str">
-        <f>stg_sige_titulo!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="21" t="str">
-        <f>stg_sige_titulo_documento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="21" t="str">
-        <f>stg_sige_terceiro_banco!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="21" t="str">
-        <f>stg_sige_condicao_pagamento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B3:D18">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1676,10 +6090,2284 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1726,7 +8414,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1734,7 +8422,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1754,138 +8442,118 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>502</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>503</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>23</v>
+        <v>496</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>497</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>498</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>499</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>41</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>501</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>46</v>
+      <c r="A25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -1895,15 +8563,357 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2117,21 +9127,23 @@
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
@@ -2139,7 +9151,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
@@ -2147,7 +9159,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
@@ -2155,7 +9167,7 @@
         <v>74</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
@@ -2163,13 +9175,446 @@
         <v>75</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>aux_ods_cap_reembolso!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>aux_ods_enc_car_cap!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>aux_ods_sige_titulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>aux_ods_sige_titulo_movimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>aux_ods_sige_titulo_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>aux_ods_terceiro_banco!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>dump_parceiro_negocio!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>ods_cap_cliente_reembolso!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>ods_cap_reembolso!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>ods_condicao_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f>ods_enc_car_cap!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>ods_fornecedor_contato!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>ods_parceiro_negocio!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>ods_sige_remessa!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>ods_sige_titulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>ods_sige_titulo_documento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>ods_sige_titulo_modulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>ods_sige_titulo_movimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>ods_sige_titulo_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>ods_sige_titulo_transacao!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>ods_terceiro_banco!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>ods_titulo_x_recebimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>stg_enc_reversao!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>stg_parceiro_negocio!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>stg_sige_condicao_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>stg_sige_fornecedor_contato!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>stg_sige_terceiro_banco!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f>stg_sige_titulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f>stg_sige_titulo_abatimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>stg_sige_titulo_complemento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f>stg_sige_titulo_documento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f>stg_sige_titulo_movimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f>stg_sige_titulo_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="25"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="25"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="25"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:D35">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B3" location="aux_ods_cap_reembolso!A1" display="aux_ods_cap_reembolso"/>
+    <hyperlink ref="B4" location="aux_ods_enc_car_cap!A1" display="aux_ods_enc_car_cap"/>
+    <hyperlink ref="B5" location="aux_ods_sige_titulo!A1" display="aux_ods_sige_titulo"/>
+    <hyperlink ref="B6" location="aux_ods_sige_titulo_movimento!A1" display="aux_ods_sige_titulo_movimento"/>
+    <hyperlink ref="B7" location="aux_ods_sige_titulo_pagamento!A1" display="aux_ods_sige_titulo_pagamento"/>
+    <hyperlink ref="B8" location="aux_ods_terceiro_banco!A1" display="aux_ods_terceiro_banco"/>
+    <hyperlink ref="B9" location="dump_parceiro_negocio!A1" display="dump_parceiro_negocio"/>
+    <hyperlink ref="B10" location="ods_cap_cliente_reembolso!A1" display="ods_cap_cliente_reembolso"/>
+    <hyperlink ref="B11" location="ods_cap_reembolso!A1" display="ods_cap_reembolso"/>
+    <hyperlink ref="B12" location="ods_condicao_pagamento!A1" display="ods_condicao_pagamento"/>
+    <hyperlink ref="B13" location="ods_enc_car_cap!A1" display="ods_enc_car_cap"/>
+    <hyperlink ref="B14" location="ods_fornecedor_contato!A1" display="ods_fornecedor_contato"/>
+    <hyperlink ref="B15" location="ods_parceiro_negocio!A1" display="ods_parceiro_negocio"/>
+    <hyperlink ref="B16" location="ods_sige_remessa!A1" display="ods_sige_remessa"/>
+    <hyperlink ref="B17" location="ods_sige_titulo!A1" display="ods_sige_titulo"/>
+    <hyperlink ref="B18" location="ods_sige_titulo_documento!A1" display="ods_sige_titulo_documento"/>
+    <hyperlink ref="B19" location="ods_sige_titulo_modulo!A1" display="ods_sige_titulo_modulo"/>
+    <hyperlink ref="B20" location="ods_sige_titulo_movimento!A1" display="ods_sige_titulo_movimento"/>
+    <hyperlink ref="B21" location="ods_sige_titulo_pagamento!A1" display="ods_sige_titulo_pagamento"/>
+    <hyperlink ref="B22" location="ods_sige_titulo_transacao!A1" display="ods_sige_titulo_transacao"/>
+    <hyperlink ref="B23" location="ods_terceiro_banco!A1" display="ods_terceiro_banco"/>
+    <hyperlink ref="B25" location="stg_enc_reversao!A1" display="stg_enc_reversao"/>
+    <hyperlink ref="B26" location="stg_parceiro_negocio!A1" display="stg_parceiro_negocio"/>
+    <hyperlink ref="B27" location="stg_sige_condicao_pagamento!A1" display="stg_sige_condicao_pagamento"/>
+    <hyperlink ref="B28" location="stg_sige_fornecedor_contato!A1" display="stg_sige_fornecedor_contato"/>
+    <hyperlink ref="B29" location="stg_sige_terceiro_banco!A1" display="stg_sige_terceiro_banco"/>
+    <hyperlink ref="B30" location="stg_sige_titulo!A1" display="stg_sige_titulo"/>
+    <hyperlink ref="B33" location="stg_sige_titulo_documento!A1" display="stg_sige_titulo_documento"/>
+    <hyperlink ref="B34" location="stg_sige_titulo_movimento!A1" display="stg_sige_titulo_movimento"/>
+    <hyperlink ref="B35" location="stg_sige_titulo_pagamento!A1" display="stg_sige_titulo_pagamento"/>
+    <hyperlink ref="B32" location="stg_sige_titulo_complemento!A1" display="stg_sige_titulo_complemento"/>
+    <hyperlink ref="B24" location="ods_titulo_x_recebimento!A1" display="ods_titulo_x_recebimento"/>
+    <hyperlink ref="B31" location="stg_sige_titulo_abatimento!A1" display="stg_sige_titulo_abatimento"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -2178,10 +9623,492 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2220,7 +10147,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2228,7 +10155,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2236,7 +10163,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2256,334 +10183,68 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>159</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+        <v>321</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>421</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>422</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>158</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2593,15 +10254,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2640,7 +10301,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2648,7 +10309,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2656,7 +10317,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2676,37 +10337,61 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>412</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>168</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>167</v>
+      <c r="A16" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>409</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,16 +10400,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2762,7 +10445,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2770,7 +10453,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2798,73 +10481,35 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>171</v>
+        <v>451</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>179</v>
+        <v>452</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>180</v>
+      <c r="A15" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>185</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2873,16 +10518,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2920,7 +10563,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2928,7 +10571,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2956,48 +10599,244 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>190</v>
+        <v>339</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>194</v>
+        <v>466</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>198</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>197</v>
+        <v>467</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Layouts/Contas_Pagar_LN.xlsx
+++ b/Documentação/Planilhas/Layouts/Contas_Pagar_LN.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="590">
   <si>
     <t>Campo</t>
   </si>
@@ -1823,6 +1823,9 @@
   </si>
   <si>
     <t xml:space="preserve">BANCO </t>
+  </si>
+  <si>
+    <t>[erp].[ods_parceiro_negocio]</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2260,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2281,6 +2283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4433,7 +4436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4441,7 +4446,7 @@
     <col min="2" max="2" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="30" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4460,688 +4465,688 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="21" t="str">
+        <f>aux_ods_sige_titulo!B9</f>
+        <v>[dbo].[aux_ods_sige_titulo]</v>
+      </c>
+      <c r="C3" s="15" t="str">
+        <f>aux_ods_sige_titulo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D3" s="16" t="str">
+        <f>aux_ods_sige_titulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="22" t="str">
+        <f>aux_ods_sige_titulo_movimento!B9</f>
+        <v>[dbo].[aux_ods_sige_titulo_movimento]</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f>aux_ods_sige_titulo_movimento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f>aux_ods_sige_titulo_movimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="22" t="str">
+        <f>aux_sige_nr_depto!B9</f>
+        <v>[dbo].[aux_sige_nr_depto]</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f>aux_sige_nr_depto!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>aux_sige_nr_depto!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="22" t="str">
+        <f>ods_sige_extranet_fornecedores!B9</f>
+        <v>[dbo].[ods_sige_extranet_fornecedores]</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f>ods_sige_extranet_fornecedores!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>ods_sige_extranet_fornecedores!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="22" t="str">
+        <f>ods_sige_extranet_fornec_liq!B9</f>
+        <v>[dbo].[ods_sige_extranet_fornecedores_liquidado]</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>ods_sige_extranet_fornec_liq!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>ods_sige_extranet_fornec_liq!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="22" t="str">
+        <f>ods_sige_titulo!B9</f>
+        <v>[dbo].[ods_sige_titulo]</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>ods_sige_titulo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>ods_sige_titulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="22" t="str">
+        <f>ods_sige_titulo_abatimento!B9</f>
+        <v>[dbo].[ods_sige_titulo_abatimento]</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f>ods_sige_titulo_abatimento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f>ods_sige_titulo_abatimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="22" t="str">
+        <f>ods_sige_titulo_agrupado!B9</f>
+        <v>[dbo].[ods_sige_titulo_agrupado]</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f>ods_sige_titulo_agrupado!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>ods_sige_titulo_agrupado!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="22" t="str">
+        <f>ods_sige_titulo_documento!B9</f>
+        <v>[dbo].[ods_sige_titulo_documento]</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f>ods_sige_titulo_documento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f>ods_sige_titulo_documento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="22" t="str">
+        <f>ods_sige_titulo_modulo!B9</f>
+        <v>[dbo].[ods_sige_titulo_modulo]</v>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f>ods_sige_titulo_modulo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f>ods_sige_titulo_modulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="22" t="str">
+        <f>ods_sige_titulo_movimento!B9</f>
+        <v>[dbo].[ods_sige_titulo_movimento]</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f>ods_sige_titulo_movimento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f>ods_sige_titulo_movimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="22" t="str">
+        <f>ods_sige_titulo_relatorio!B9</f>
+        <v>[dbo].[ods_sige_titulo_relatorio]</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f>ods_sige_titulo_relatorio!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f>ods_sige_titulo_relatorio!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="22" t="str">
+        <f>ods_sige_titulo_transacao!B9</f>
+        <v>[dbo].[ods_sige_titulo_transacao]</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f>ods_sige_titulo_transacao!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f>ods_sige_titulo_transacao!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="22" t="str">
+        <f>stg_sige_extranet_fornecedores!B9</f>
+        <v>[dbo].[stg_sige_extranet_fornecedores]</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f>stg_sige_extranet_fornecedores!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f>stg_sige_extranet_fornecedores!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="22" t="str">
+        <f>stg_sige_extranet_fornec_liq!B9</f>
+        <v>[dbo].[stg_sige_extranet_fornecedores_liquidado]</v>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f>stg_sige_extranet_fornec_liq!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f>stg_sige_extranet_fornec_liq!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="22" t="str">
+        <f>stg_sige_titulo!B9</f>
+        <v>[dbo].[stg_sige_titulo]</v>
+      </c>
+      <c r="C18" s="17" t="str">
+        <f>stg_sige_titulo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f>stg_sige_titulo!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="22" t="str">
+        <f>stg_sige_titulo_abatimento!B9</f>
+        <v>[dbo].[stg_sige_titulo_abatimento]</v>
+      </c>
+      <c r="C19" s="17" t="str">
+        <f>stg_sige_titulo_abatimento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D19" s="31" t="str">
+        <f>stg_sige_titulo_abatimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="22" t="str">
+        <f>stg_sige_titulo_complemento!B9</f>
+        <v>[dbo].[stg_sige_titulo_complemento]</v>
+      </c>
+      <c r="C20" s="17" t="str">
+        <f>stg_sige_titulo_complemento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f>stg_sige_titulo_complemento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="22" t="str">
+        <f>stg_sige_titulo_documento!B9</f>
+        <v>[dbo].[stg_sige_titulo_documento]</v>
+      </c>
+      <c r="C21" s="17" t="str">
+        <f>stg_sige_titulo_documento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f>stg_sige_titulo_documento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="22" t="str">
+        <f>stg_sige_titulo_movimento!B9</f>
+        <v>[dbo].[stg_sige_titulo_movimento]</v>
+      </c>
+      <c r="C22" s="17" t="str">
+        <f>stg_sige_titulo_movimento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f>stg_sige_titulo_movimento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="22" t="str">
+        <f>dump_parceiro_negocio!B9</f>
+        <v>[erp].[dump_parceiro_negocio]</v>
+      </c>
+      <c r="C23" s="17" t="str">
+        <f>dump_parceiro_negocio!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f>dump_parceiro_negocio!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="22" t="str">
+        <f>ods_parceiro_negocio!B9</f>
+        <v>[erp].[ods_parceiro_negocio]</v>
+      </c>
+      <c r="C24" s="17" t="str">
+        <f>ods_parceiro_negocio!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f>ods_parceiro_negocio!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="22" t="str">
+        <f>stg_parceiro_negocio!B9</f>
+        <v>[erp].[stg_parceiro_negocio]</v>
+      </c>
+      <c r="C25" s="17" t="str">
+        <f>stg_parceiro_negocio!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f>stg_parceiro_negocio!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="22" t="str">
         <f>aux_ods_cap_reembolso!B9</f>
         <v>[fin].[aux_ods_cap_reembolso]</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C26" s="17" t="str">
         <f>aux_ods_cap_reembolso!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D3" s="16" t="str">
+      <c r="D26" s="18" t="str">
         <f>aux_ods_cap_reembolso!B10</f>
         <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E26" s="27" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="23" t="str">
+    <row r="27" spans="2:5">
+      <c r="B27" s="22" t="str">
+        <f>aux_ods_sige_titulo_pagamento!B9</f>
+        <v>[fin].[aux_ods_sige_titulo_pagamento]</v>
+      </c>
+      <c r="C27" s="17" t="str">
+        <f>aux_ods_sige_titulo_pagamento!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f>aux_ods_sige_titulo_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="22" t="str">
+        <f>aux_ods_terceiro_banco!B9</f>
+        <v>[fin].[aux_ods_terceiro_banco]</v>
+      </c>
+      <c r="C28" s="17" t="str">
+        <f>aux_ods_terceiro_banco!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f>aux_ods_terceiro_banco!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="23" t="str">
+        <f>ods_cap_cliente_reembolso!B9</f>
+        <v>[fin].[ods_cap_cliente_reembolso]</v>
+      </c>
+      <c r="C29" s="17" t="str">
+        <f>ods_cap_cliente_reembolso!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <f>ods_cap_cliente_reembolso!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="22" t="str">
+        <f>ods_cap_reembolso!B9</f>
+        <v>[fin].[ods_cap_reembolso]</v>
+      </c>
+      <c r="C30" s="17" t="str">
+        <f>ods_cap_reembolso!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f>ods_cap_reembolso!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="22" t="str">
+        <f>ods_condicao_pagamento!B9</f>
+        <v>[fin].[ods_condicao_pagamento]</v>
+      </c>
+      <c r="C31" s="17" t="str">
+        <f>ods_condicao_pagamento!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f>ods_condicao_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="22" t="str">
+        <f>ods_fornecedor_contato!B9</f>
+        <v>[fin].[ods_fornecedor_contato]</v>
+      </c>
+      <c r="C32" s="17" t="str">
+        <f>ods_fornecedor_contato!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D32" s="18" t="str">
+        <f>ods_fornecedor_contato!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="22" t="str">
+        <f>ods_sige_remessa!B9</f>
+        <v>[fin].[ods_sige_remessa]</v>
+      </c>
+      <c r="C33" s="17" t="str">
+        <f>ods_sige_remessa!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f>ods_sige_remessa!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="22" t="str">
+        <f>ods_sige_titulo_pagamento!B9</f>
+        <v>[fin].[ods_sige_titulo_pagamento]</v>
+      </c>
+      <c r="C34" s="17" t="str">
+        <f>ods_sige_titulo_pagamento!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D34" s="18" t="str">
+        <f>ods_sige_titulo_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="22" t="str">
+        <f>ods_terceiro_banco!B9</f>
+        <v>[fin].[ods_terceiro_banco]</v>
+      </c>
+      <c r="C35" s="17" t="str">
+        <f>ods_terceiro_banco!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D35" s="18" t="str">
+        <f>ods_terceiro_banco!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="23" t="str">
+        <f>stg_sige_condicao_pagamento!B9</f>
+        <v>[fin].[stg_sige_condicao_pagamento]</v>
+      </c>
+      <c r="C36" s="17" t="str">
+        <f>stg_sige_condicao_pagamento!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D36" s="19" t="str">
+        <f>stg_sige_condicao_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="23" t="str">
+        <f>stg_sige_fornecedor_contato!B9</f>
+        <v>[fin].[stg_sige_fornecedor_contato]</v>
+      </c>
+      <c r="C37" s="17" t="str">
+        <f>stg_sige_fornecedor_contato!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D37" s="19" t="str">
+        <f>stg_sige_fornecedor_contato!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="23" t="str">
+        <f>stg_sige_terceiro_banco!B9</f>
+        <v>[fin].[stg_sige_terceiro_banco]</v>
+      </c>
+      <c r="C38" s="17" t="str">
+        <f>stg_sige_terceiro_banco!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D38" s="19" t="str">
+        <f>stg_sige_terceiro_banco!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="23" t="str">
+        <f>stg_sige_titulo_pagamento!B9</f>
+        <v>[fin].[stg_sige_titulo_pagamento]</v>
+      </c>
+      <c r="C39" s="17" t="str">
+        <f>stg_sige_titulo_pagamento!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D39" s="19" t="str">
+        <f>stg_sige_titulo_pagamento!B10</f>
+        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
+      </c>
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="23" t="str">
         <f>aux_ods_enc_car_cap!B9</f>
         <v>[ln].[aux_ods_enc_car_cap]</v>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C40" s="17" t="str">
         <f>aux_ods_enc_car_cap!B8</f>
         <v>MIS_STAGING</v>
       </c>
-      <c r="D4" s="18" t="str">
+      <c r="D40" s="19" t="str">
         <f>aux_ods_enc_car_cap!B10</f>
         <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
       </c>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="23" t="str">
-        <f>aux_ods_sige_titulo!B9</f>
-        <v>[dbo].[aux_ods_sige_titulo]</v>
-      </c>
-      <c r="C5" s="17" t="str">
-        <f>aux_ods_sige_titulo!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D5" s="18" t="str">
-        <f>aux_ods_sige_titulo!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="23" t="str">
-        <f>aux_ods_sige_titulo_movimento!B9</f>
-        <v>[dbo].[aux_ods_sige_titulo_movimento]</v>
-      </c>
-      <c r="C6" s="17" t="str">
-        <f>aux_ods_sige_titulo_movimento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D6" s="18" t="str">
-        <f>aux_ods_sige_titulo_movimento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="23" t="str">
-        <f>aux_ods_sige_titulo_pagamento!B9</f>
-        <v>[fin].[aux_ods_sige_titulo_pagamento]</v>
-      </c>
-      <c r="C7" s="17" t="str">
-        <f>aux_ods_sige_titulo_pagamento!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D7" s="18" t="str">
-        <f>aux_ods_sige_titulo_pagamento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="23" t="str">
-        <f>aux_ods_terceiro_banco!B9</f>
-        <v>[fin].[aux_ods_terceiro_banco]</v>
-      </c>
-      <c r="C8" s="17" t="str">
-        <f>aux_ods_terceiro_banco!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D8" s="18" t="str">
-        <f>aux_ods_terceiro_banco!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="23" t="str">
-        <f>aux_sige_nr_depto!B9</f>
-        <v>[dbo].[aux_sige_nr_depto]</v>
-      </c>
-      <c r="C9" s="17" t="str">
-        <f>aux_sige_nr_depto!B8</f>
-        <v>MIS_RELATORIO</v>
-      </c>
-      <c r="D9" s="18" t="str">
-        <f>aux_sige_nr_depto!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="23" t="str">
-        <f>dump_parceiro_negocio!B9</f>
-        <v>[erp].[dump_parceiro_negocio]</v>
-      </c>
-      <c r="C10" s="17" t="str">
-        <f>dump_parceiro_negocio!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D10" s="18" t="str">
-        <f>dump_parceiro_negocio!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="23" t="str">
-        <f>ods_cap_cliente_reembolso!B9</f>
-        <v>[fin].[ods_cap_cliente_reembolso]</v>
-      </c>
-      <c r="C11" s="17" t="str">
-        <f>ods_cap_cliente_reembolso!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D11" s="18" t="str">
-        <f>ods_cap_cliente_reembolso!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="23" t="str">
-        <f>ods_cap_reembolso!B9</f>
-        <v>[fin].[ods_cap_reembolso]</v>
-      </c>
-      <c r="C12" s="17" t="str">
-        <f>ods_cap_reembolso!B8</f>
-        <v>MIS_RELATORIO</v>
-      </c>
-      <c r="D12" s="18" t="str">
-        <f>ods_cap_reembolso!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="23" t="str">
-        <f>ods_condicao_pagamento!B9</f>
-        <v>[fin].[ods_condicao_pagamento]</v>
-      </c>
-      <c r="C13" s="17" t="str">
-        <f>ods_condicao_pagamento!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D13" s="18" t="str">
-        <f>ods_condicao_pagamento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="23" t="str">
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="23" t="str">
         <f>ods_enc_car_cap!B9</f>
         <v>[ln].[ods_enc_car_cap]</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C41" s="17" t="str">
         <f>ods_enc_car_cap!B8</f>
         <v>MIS_ODS</v>
       </c>
-      <c r="D14" s="18" t="str">
+      <c r="D41" s="19" t="str">
         <f>ods_enc_car_cap!B10</f>
         <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
       </c>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="23" t="str">
-        <f>ods_fornecedor_contato!B9</f>
-        <v>[fin].[ods_fornecedor_contato]</v>
-      </c>
-      <c r="C15" s="17" t="str">
-        <f>ods_fornecedor_contato!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D15" s="18" t="str">
-        <f>ods_fornecedor_contato!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="23" t="str">
-        <f>ods_parceiro_negocio!B9</f>
-        <v>[erp].[stg_parceiro_negocio]</v>
-      </c>
-      <c r="C16" s="17" t="str">
-        <f>ods_parceiro_negocio!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D16" s="18" t="str">
-        <f>ods_parceiro_negocio!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="23" t="str">
-        <f>ods_sige_extranet_fornecedores!B9</f>
-        <v>[dbo].[ods_sige_extranet_fornecedores]</v>
-      </c>
-      <c r="C17" s="17" t="str">
-        <f>ods_sige_extranet_fornecedores!B8</f>
-        <v>MIS_RELATORIO</v>
-      </c>
-      <c r="D17" s="18" t="str">
-        <f>ods_sige_extranet_fornecedores!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="23" t="str">
-        <f>ods_sige_extranet_fornec_liq!B9</f>
-        <v>[dbo].[ods_sige_extranet_fornecedores_liquidado]</v>
-      </c>
-      <c r="C18" s="17" t="str">
-        <f>ods_sige_extranet_fornec_liq!B8</f>
-        <v>MIS_RELATORIO</v>
-      </c>
-      <c r="D18" s="18" t="str">
-        <f>ods_sige_extranet_fornec_liq!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="23" t="str">
-        <f>ods_sige_remessa!B9</f>
-        <v>[fin].[ods_sige_remessa]</v>
-      </c>
-      <c r="C19" s="17" t="str">
-        <f>ods_sige_remessa!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D19" s="18" t="str">
-        <f>ods_sige_remessa!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="23" t="str">
-        <f>ods_sige_titulo!B9</f>
-        <v>[dbo].[ods_sige_titulo]</v>
-      </c>
-      <c r="C20" s="17" t="str">
-        <f>ods_sige_titulo!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D20" s="18" t="str">
-        <f>ods_sige_titulo!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="23" t="str">
-        <f>ods_sige_titulo_abatimento!B9</f>
-        <v>[dbo].[ods_sige_titulo_abatimento]</v>
-      </c>
-      <c r="C21" s="17" t="str">
-        <f>ods_sige_titulo_abatimento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D21" s="18" t="str">
-        <f>ods_sige_titulo_abatimento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="23" t="str">
-        <f>ods_sige_titulo_agrupado!B9</f>
-        <v>[dbo].[ods_sige_titulo_agrupado]</v>
-      </c>
-      <c r="C22" s="17" t="str">
-        <f>ods_sige_titulo_agrupado!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D22" s="18" t="str">
-        <f>ods_sige_titulo_agrupado!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="23" t="str">
-        <f>ods_sige_titulo_documento!B9</f>
-        <v>[dbo].[ods_sige_titulo_documento]</v>
-      </c>
-      <c r="C23" s="17" t="str">
-        <f>ods_sige_titulo_documento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D23" s="18" t="str">
-        <f>ods_sige_titulo_documento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="23" t="str">
-        <f>ods_sige_titulo_modulo!B9</f>
-        <v>[dbo].[ods_sige_titulo_modulo]</v>
-      </c>
-      <c r="C24" s="17" t="str">
-        <f>ods_sige_titulo_modulo!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D24" s="18" t="str">
-        <f>ods_sige_titulo_modulo!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="23" t="str">
-        <f>ods_sige_titulo_movimento!B9</f>
-        <v>[dbo].[ods_sige_titulo_movimento]</v>
-      </c>
-      <c r="C25" s="17" t="str">
-        <f>ods_sige_titulo_movimento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D25" s="18" t="str">
-        <f>ods_sige_titulo_movimento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="23" t="str">
-        <f>ods_sige_titulo_pagamento!B9</f>
-        <v>[fin].[ods_sige_titulo_pagamento]</v>
-      </c>
-      <c r="C26" s="17" t="str">
-        <f>ods_sige_titulo_pagamento!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D26" s="18" t="str">
-        <f>ods_sige_titulo_pagamento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="23" t="str">
-        <f>ods_sige_titulo_relatorio!B9</f>
-        <v>[dbo].[ods_sige_titulo_relatorio]</v>
-      </c>
-      <c r="C27" s="17" t="str">
-        <f>ods_sige_titulo_relatorio!B8</f>
-        <v>MIS_RELATORIO</v>
-      </c>
-      <c r="D27" s="18" t="str">
-        <f>ods_sige_titulo_relatorio!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="23" t="str">
-        <f>ods_sige_titulo_transacao!B9</f>
-        <v>[dbo].[ods_sige_titulo_transacao]</v>
-      </c>
-      <c r="C28" s="17" t="str">
-        <f>ods_sige_titulo_transacao!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D28" s="18" t="str">
-        <f>ods_sige_titulo_transacao!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="24" t="str">
-        <f>ods_terceiro_banco!B9</f>
-        <v>[fin].[ods_terceiro_banco]</v>
-      </c>
-      <c r="C29" s="17" t="str">
-        <f>ods_terceiro_banco!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D29" s="19" t="str">
-        <f>ods_terceiro_banco!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="23" t="str">
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="23" t="str">
         <f>ods_titulo_x_recebimento!B9</f>
         <v>[ln].[ods_titulo_x_recebimento]</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C42" s="17" t="str">
         <f>ods_titulo_x_recebimento!B8</f>
         <v>MIS_ODS</v>
       </c>
-      <c r="D30" s="18" t="str">
+      <c r="D42" s="19" t="str">
         <f>ods_titulo_x_recebimento!B10</f>
         <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E42" s="28" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="23" t="str">
+    <row r="43" spans="2:5">
+      <c r="B43" s="23" t="str">
         <f>stg_enc_reversao!B9</f>
         <v>[ln].[stg_enc_reversao]</v>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C43" s="17" t="str">
         <f>stg_enc_reversao!B8</f>
         <v>MIS_STAGING</v>
       </c>
-      <c r="D31" s="18" t="str">
+      <c r="D43" s="19" t="str">
         <f>stg_enc_reversao!B10</f>
         <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar.dtsx</v>
       </c>
-      <c r="E31" s="28"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="23" t="str">
-        <f>stg_parceiro_negocio!B9</f>
-        <v>[erp].[stg_parceiro_negocio]</v>
-      </c>
-      <c r="C32" s="17" t="str">
-        <f>stg_parceiro_negocio!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D32" s="18" t="str">
-        <f>stg_parceiro_negocio!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="23" t="str">
-        <f>stg_sige_condicao_pagamento!B9</f>
-        <v>[fin].[stg_sige_condicao_pagamento]</v>
-      </c>
-      <c r="C33" s="17" t="str">
-        <f>stg_sige_condicao_pagamento!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D33" s="18" t="str">
-        <f>stg_sige_condicao_pagamento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="23" t="str">
-        <f>stg_sige_extranet_fornecedores!B9</f>
-        <v>[dbo].[stg_sige_extranet_fornecedores]</v>
-      </c>
-      <c r="C34" s="17" t="str">
-        <f>stg_sige_extranet_fornecedores!B8</f>
-        <v>MIS_RELATORIO</v>
-      </c>
-      <c r="D34" s="18" t="str">
-        <f>stg_sige_extranet_fornecedores!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="23" t="str">
-        <f>stg_sige_extranet_fornec_liq!B9</f>
-        <v>[dbo].[stg_sige_extranet_fornecedores_liquidado]</v>
-      </c>
-      <c r="C35" s="17" t="str">
-        <f>stg_sige_extranet_fornec_liq!B8</f>
-        <v>MIS_RELATORIO</v>
-      </c>
-      <c r="D35" s="18" t="str">
-        <f>stg_sige_extranet_fornec_liq!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="24" t="str">
-        <f>stg_sige_fornecedor_contato!B9</f>
-        <v>[fin].[stg_sige_fornecedor_contato]</v>
-      </c>
-      <c r="C36" s="17" t="str">
-        <f>stg_sige_fornecedor_contato!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D36" s="19" t="str">
-        <f>stg_sige_fornecedor_contato!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="24" t="str">
-        <f>stg_sige_terceiro_banco!B9</f>
-        <v>[fin].[stg_sige_terceiro_banco]</v>
-      </c>
-      <c r="C37" s="17" t="str">
-        <f>stg_sige_terceiro_banco!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D37" s="19" t="str">
-        <f>stg_sige_terceiro_banco!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="24" t="str">
-        <f>stg_sige_titulo!B9</f>
-        <v>[dbo].[stg_sige_titulo]</v>
-      </c>
-      <c r="C38" s="17" t="str">
-        <f>stg_sige_titulo!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D38" s="19" t="str">
-        <f>stg_sige_titulo!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="24" t="str">
-        <f>stg_sige_titulo_abatimento!B9</f>
-        <v>[dbo].[stg_sige_titulo_abatimento]</v>
-      </c>
-      <c r="C39" s="17" t="str">
-        <f>stg_sige_titulo_abatimento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D39" s="20" t="str">
-        <f>stg_sige_titulo_abatimento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="24" t="str">
-        <f>stg_sige_titulo_complemento!B9</f>
-        <v>[dbo].[stg_sige_titulo_complemento]</v>
-      </c>
-      <c r="C40" s="17" t="str">
-        <f>stg_sige_titulo_complemento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D40" s="19" t="str">
-        <f>stg_sige_titulo_complemento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\ods_contas_a_pagar_fornecedor.dtsx</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="24" t="str">
-        <f>stg_sige_titulo_documento!B9</f>
-        <v>[dbo].[stg_sige_titulo_documento]</v>
-      </c>
-      <c r="C41" s="17" t="str">
-        <f>stg_sige_titulo_documento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D41" s="19" t="str">
-        <f>stg_sige_titulo_documento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E41" s="29"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="24" t="str">
-        <f>stg_sige_titulo_movimento!B9</f>
-        <v>[dbo].[stg_sige_titulo_movimento]</v>
-      </c>
-      <c r="C42" s="17" t="str">
-        <f>stg_sige_titulo_movimento!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D42" s="19" t="str">
-        <f>stg_sige_titulo_movimento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E42" s="29"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="24" t="str">
-        <f>stg_sige_titulo_pagamento!B9</f>
-        <v>[fin].[stg_sige_titulo_pagamento]</v>
-      </c>
-      <c r="C43" s="17" t="str">
-        <f>stg_sige_titulo_pagamento!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D43" s="19" t="str">
-        <f>stg_sige_titulo_pagamento!B10</f>
-        <v>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\stg_contas_a_pagar.dtsx</v>
-      </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="25"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="30"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="29"/>
     </row>
   </sheetData>
-  <sortState ref="B3:D43">
-    <sortCondition ref="B3"/>
+  <sortState ref="B3:E43">
+    <sortCondition ref="B3:B43"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" location="aux_ods_cap_reembolso!A1" display="aux_ods_cap_reembolso!A1"/>
-    <hyperlink ref="B4" location="aux_ods_enc_car_cap!A1" display="aux_ods_enc_car_cap"/>
-    <hyperlink ref="B5" location="aux_ods_sige_titulo!A1" display="aux_ods_sige_titulo"/>
-    <hyperlink ref="B6" location="aux_ods_sige_titulo_movimento!A1" display="aux_ods_sige_titulo_movimento"/>
-    <hyperlink ref="B7" location="aux_ods_sige_titulo_pagamento!A1" display="aux_ods_sige_titulo_pagamento"/>
-    <hyperlink ref="B8" location="aux_ods_terceiro_banco!A1" display="aux_ods_terceiro_banco"/>
-    <hyperlink ref="B10" location="dump_parceiro_negocio!A1" display="dump_parceiro_negocio"/>
-    <hyperlink ref="B11" location="ods_cap_cliente_reembolso!A1" display="ods_cap_cliente_reembolso"/>
-    <hyperlink ref="B12" location="ods_cap_reembolso!A1" display="ods_cap_reembolso"/>
-    <hyperlink ref="B13" location="ods_condicao_pagamento!A1" display="ods_condicao_pagamento"/>
-    <hyperlink ref="B14" location="ods_enc_car_cap!A1" display="ods_enc_car_cap"/>
-    <hyperlink ref="B15" location="ods_fornecedor_contato!A1" display="ods_fornecedor_contato"/>
-    <hyperlink ref="B16" location="ods_parceiro_negocio!A1" display="ods_parceiro_negocio"/>
-    <hyperlink ref="B19" location="ods_sige_remessa!A1" display="ods_sige_remessa"/>
-    <hyperlink ref="B20" location="ods_sige_titulo!A1" display="ods_sige_titulo"/>
-    <hyperlink ref="B23" location="ods_sige_titulo_documento!A1" display="ods_sige_titulo_documento"/>
-    <hyperlink ref="B24" location="ods_sige_titulo_modulo!A1" display="ods_sige_titulo_modulo"/>
-    <hyperlink ref="B25" location="ods_sige_titulo_movimento!A1" display="ods_sige_titulo_movimento"/>
-    <hyperlink ref="B26" location="ods_sige_titulo_pagamento!A1" display="ods_sige_titulo_pagamento"/>
-    <hyperlink ref="B28" location="ods_sige_titulo_transacao!A1" display="ods_sige_titulo_transacao"/>
-    <hyperlink ref="B29" location="ods_terceiro_banco!A1" display="ods_terceiro_banco"/>
-    <hyperlink ref="B31" location="stg_enc_reversao!A1" display="stg_enc_reversao"/>
-    <hyperlink ref="B32" location="stg_parceiro_negocio!A1" display="stg_parceiro_negocio"/>
-    <hyperlink ref="B33" location="stg_sige_condicao_pagamento!A1" display="stg_sige_condicao_pagamento"/>
-    <hyperlink ref="B36" location="stg_sige_fornecedor_contato!A1" display="stg_sige_fornecedor_contato"/>
-    <hyperlink ref="B37" location="stg_sige_terceiro_banco!A1" display="stg_sige_terceiro_banco"/>
-    <hyperlink ref="B38" location="stg_sige_titulo!A1" display="stg_sige_titulo"/>
-    <hyperlink ref="B41" location="stg_sige_titulo_documento!A1" display="stg_sige_titulo_documento"/>
-    <hyperlink ref="B42" location="stg_sige_titulo_movimento!A1" display="stg_sige_titulo_movimento"/>
-    <hyperlink ref="B43" location="stg_sige_titulo_pagamento!A1" display="stg_sige_titulo_pagamento"/>
-    <hyperlink ref="B40" location="stg_sige_titulo_complemento!A1" display="stg_sige_titulo_complemento"/>
-    <hyperlink ref="B30" location="ods_titulo_x_recebimento!A1" display="ods_titulo_x_recebimento"/>
-    <hyperlink ref="B39" location="stg_sige_titulo_abatimento!A1" display="stg_sige_titulo_abatimento"/>
-    <hyperlink ref="B21" location="ods_sige_titulo_abatimento!A1" display="ods_sige_titulo_abatimento"/>
-    <hyperlink ref="B34" location="stg_sige_extranet_fornecedores!A1" display="stg_sige_extranet_fornecedores"/>
-    <hyperlink ref="B35" location="stg_sige_extranet_fornec_liq!A1" display="stg_sige_extranet_fornecedores_liquidado"/>
-    <hyperlink ref="B17" location="ods_sige_extranet_fornecedores!A1" display="ods_sige_extranet_fornecedores"/>
-    <hyperlink ref="B18" location="ods_sige_extranet_fornec_liq!A1" display="ods_sige_extranet_fornecedores_liquidado"/>
-    <hyperlink ref="B22" location="ods_sige_titulo_agrupado!A1" display="ods_sige_titulo_agrupado"/>
-    <hyperlink ref="B9" location="aux_sige_nr_depto!A1" display="aux_sige_nr_depto"/>
-    <hyperlink ref="B27" location="ods_sige_titulo_relatorio!A1" display="ods_sige_titulo_relatorio!A1"/>
+    <hyperlink ref="B26" location="aux_ods_cap_reembolso!A1" display="aux_ods_cap_reembolso!A1"/>
+    <hyperlink ref="B40" location="aux_ods_enc_car_cap!A1" display="aux_ods_enc_car_cap"/>
+    <hyperlink ref="B3" location="aux_ods_sige_titulo!A1" display="aux_ods_sige_titulo"/>
+    <hyperlink ref="B4" location="aux_ods_sige_titulo_movimento!A1" display="aux_ods_sige_titulo_movimento"/>
+    <hyperlink ref="B27" location="aux_ods_sige_titulo_pagamento!A1" display="aux_ods_sige_titulo_pagamento"/>
+    <hyperlink ref="B28" location="aux_ods_terceiro_banco!A1" display="aux_ods_terceiro_banco"/>
+    <hyperlink ref="B23" location="dump_parceiro_negocio!A1" display="dump_parceiro_negocio"/>
+    <hyperlink ref="B29" location="ods_cap_cliente_reembolso!A1" display="ods_cap_cliente_reembolso"/>
+    <hyperlink ref="B30" location="ods_cap_reembolso!A1" display="ods_cap_reembolso"/>
+    <hyperlink ref="B31" location="ods_condicao_pagamento!A1" display="ods_condicao_pagamento"/>
+    <hyperlink ref="B41" location="ods_enc_car_cap!A1" display="ods_enc_car_cap"/>
+    <hyperlink ref="B32" location="ods_fornecedor_contato!A1" display="ods_fornecedor_contato"/>
+    <hyperlink ref="B25" location="stg_parceiro_negocio!A1" display="stg_parceiro_negocio!A1"/>
+    <hyperlink ref="B33" location="ods_sige_remessa!A1" display="ods_sige_remessa"/>
+    <hyperlink ref="B8" location="ods_sige_titulo!A1" display="ods_sige_titulo"/>
+    <hyperlink ref="B11" location="ods_sige_titulo_documento!A1" display="ods_sige_titulo_documento"/>
+    <hyperlink ref="B12" location="ods_sige_titulo_modulo!A1" display="ods_sige_titulo_modulo"/>
+    <hyperlink ref="B13" location="ods_sige_titulo_movimento!A1" display="ods_sige_titulo_movimento"/>
+    <hyperlink ref="B34" location="ods_sige_titulo_pagamento!A1" display="ods_sige_titulo_pagamento"/>
+    <hyperlink ref="B15" location="ods_sige_titulo_transacao!A1" display="ods_sige_titulo_transacao"/>
+    <hyperlink ref="B35" location="ods_terceiro_banco!A1" display="ods_terceiro_banco"/>
+    <hyperlink ref="B43" location="stg_enc_reversao!A1" display="stg_enc_reversao"/>
+    <hyperlink ref="B24" location="ods_parceiro_negocio!A1" display="ods_parceiro_negocio!A1"/>
+    <hyperlink ref="B36" location="stg_sige_condicao_pagamento!A1" display="stg_sige_condicao_pagamento"/>
+    <hyperlink ref="B37" location="stg_sige_fornecedor_contato!A1" display="stg_sige_fornecedor_contato"/>
+    <hyperlink ref="B38" location="stg_sige_terceiro_banco!A1" display="stg_sige_terceiro_banco"/>
+    <hyperlink ref="B18" location="stg_sige_titulo!A1" display="stg_sige_titulo"/>
+    <hyperlink ref="B21" location="stg_sige_titulo_documento!A1" display="stg_sige_titulo_documento"/>
+    <hyperlink ref="B22" location="stg_sige_titulo_movimento!A1" display="stg_sige_titulo_movimento"/>
+    <hyperlink ref="B39" location="stg_sige_titulo_pagamento!A1" display="stg_sige_titulo_pagamento"/>
+    <hyperlink ref="B20" location="stg_sige_titulo_complemento!A1" display="stg_sige_titulo_complemento"/>
+    <hyperlink ref="B42" location="ods_titulo_x_recebimento!A1" display="ods_titulo_x_recebimento"/>
+    <hyperlink ref="B19" location="stg_sige_titulo_abatimento!A1" display="stg_sige_titulo_abatimento"/>
+    <hyperlink ref="B9" location="ods_sige_titulo_abatimento!A1" display="ods_sige_titulo_abatimento"/>
+    <hyperlink ref="B16" location="stg_sige_extranet_fornecedores!A1" display="stg_sige_extranet_fornecedores"/>
+    <hyperlink ref="B17" location="stg_sige_extranet_fornec_liq!A1" display="stg_sige_extranet_fornecedores_liquidado"/>
+    <hyperlink ref="B6" location="ods_sige_extranet_fornecedores!A1" display="ods_sige_extranet_fornecedores"/>
+    <hyperlink ref="B7" location="ods_sige_extranet_fornec_liq!A1" display="ods_sige_extranet_fornecedores_liquidado"/>
+    <hyperlink ref="B10" location="ods_sige_titulo_agrupado!A1" display="ods_sige_titulo_agrupado"/>
+    <hyperlink ref="B5" location="aux_sige_nr_depto!A1" display="aux_sige_nr_depto"/>
+    <hyperlink ref="B14" location="ods_sige_titulo_relatorio!A1" display="ods_sige_titulo_relatorio!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6081,7 +6086,9 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6127,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6135,7 +6142,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -6518,7 +6525,7 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -8024,7 +8031,9 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -8111,10 +8120,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>267</v>
       </c>
       <c r="D15" s="9"/>
